--- a/artifacts/recipes/new_data/allrecipescom/lowcarb/low_desserts.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/lowcarb/low_desserts.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699642257-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Low-Carb Desserts</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699642267-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s1MX4WD-FcBxd04yopml6oEYtoY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1019x0:1021x2):format(webp)/7053591-cf3ff0d5266642f7b16a788f0c5600d0.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273211/coconut-cookies/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Coconut Cookies</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n24 \n\n\nYield:\n24 cookies"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups unsweetened shredded coconut\n\n\n1 cup almond flour\n\n\n⅓ cup maple syrup\n\n\n3 ½ tablespoons melted coconut oil\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups unsweetened shredded coconut\n\n\n1 cup almond flour\n\n\n⅓ cup maple syrup\n\n\n3 ½ tablespoons melted coconut oil\n\n\n½ teaspoon vanilla extract\n\n\n⅛ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line 2 baking sheets with parchment paper."},{"recipe_directions":"Stir together coconut, almond flour, maple syrup, coconut oil, vanilla extract, and salt in a bowl until well blended."},{"recipe_directions":"Drop cookie dough in tablespoon-sized mounds onto the prepared baking sheets. Cover and refrigerate or freeze until use."},{"recipe_directions":"If baking cookies, preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Transfer cookies to 2 ungreased cookie sheets."},{"recipe_directions":"Bake in the preheated oven until browned, 5 to 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"No-Bake Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"110\nCalories\n\n\n10g \nFat\n\n\n6g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699642275-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-ONEA_kcynwnxgjre9A6nM7IKD8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6896167-d0917690041c4e6a86ca2a38af08bc56.jpg"
@@ -266,59 +603,55 @@
 Whipped Ricotta Protein Truffles</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275140/whipped-ricotta-protein-truffles/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Whipped Ricotta Protein Truffles</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n20 \n\n\nYield:\n20 truffles"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup whole-milk ricotta cheese\n\n\n½ cup roasted honey peanut butter (such as Skippy®)\n\n\n2 tablespoons sugar-free peanut butter-flavored syrup (such as Torani®)\n\n\n1 teaspoon vanilla extract\n\n\n2 scoops vanilla protein powder\n\n\n2 packets stevia-erythritol sweetener (such as Truvia®)\n\n\n1 pinch salt\n\n\n⅓ cup chopped dry roasted peanuts"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup whole-milk ricotta cheese\n\n\n½ cup roasted honey peanut butter (such as Skippy®)\n\n\n2 tablespoons sugar-free peanut butter-flavored syrup (such as Torani®)\n\n\n1 teaspoon vanilla extract\n\n\n2 scoops vanilla protein powder\n\n\n2 packets stevia-erythritol sweetener (such as Truvia®)\n\n\n1 pinch salt\n\n\n⅓ cup chopped dry roasted peanuts'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine ricotta cheese, peanut butter, peanut butter syrup, and vanilla extract in a bowl and mix with a hand mixer until well combined. Add protein powder, sweetener, and salt; mix until smooth."},{"recipe_directions":"Roll mixture into 1-inch balls and coat in chopped peanuts. Refrigerate until ready to serve."},{"recipe_directions":"These truffles will soften up quite a bit so it is best to store them in refrigerator until served."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Candy Recipes"},{"recipe_tags":"Nut Candy Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"70\nCalories\n\n\n5g \nFat\n\n\n2g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699642284-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7jor7qmEHyD-IL7Ak8g1XST7EtU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2502x0:2504x2):format(webp)/7422515-a8b491ac89c94b578e9496133173da02.jpg"
@@ -331,59 +664,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277590/keto-cranberry-streusel-bars/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Keto Cranberry Streusel Bars</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nAdditional Time:\n35 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n16 \n\n\nYield:\n16 bars"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray"},{"recipe_ingredients":"2 cups almond flour\n\n\n⅓ cup low-calorie natural sweetener (such as Swerve®), or more to taste\n\n\n6 tablespoons butter, melted\n\n\n1 teaspoon almond extract"},{"recipe_ingredients":"2 cups fresh cranberries\n\n\n⅓ cup low-calorie natural sweetener (such as Swerve®), or more to taste\n\n\n¼ cup orange juice\n\n\n1 teaspoon grated orange zest\n\n\n¼ teaspoon arrowroot powder\n\n\n⅓ cup chopped pecans\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray'}, {'recipe_ingredients': '2 cups almond flour\n\n\n⅓ cup low-calorie natural sweetener (such as Swerve®), or more to taste\n\n\n6 tablespoons butter, melted\n\n\n1 teaspoon almond extract'}, {'recipe_ingredients': '2 cups fresh cranberries\n\n\n⅓ cup low-calorie natural sweetener (such as Swerve®), or more to taste\n\n\n¼ cup orange juice\n\n\n1 teaspoon grated orange zest\n\n\n¼ teaspoon arrowroot powder\n\n\n⅓ cup chopped pecans\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Spray an 8x8-inch baking pan with cooking spray and set aside."},{"recipe_directions":"Pour almond flour, sweetener, melted butter, and almond extract for crust in a medium bowl and mix well. Set aside 1/3 of the mixture to be used later for the streusel topping. Press remaining 2/3 of the mixture into the prepared baking pan."},{"recipe_directions":"Bake in the preheated oven until partially golden, about 5 minutes. Remove and set aside."},{"recipe_directions":"Combine cranberries, sweetener, orange juice, orange zest, and arrowroot powder in a small saucepan. Bring to a boil over medium heat; reduce heat to medium-low and let simmer until all of the cranberries have popped, about 10 minutes. Remove from heat and let cool for about 5 minutes. Spread cranberry filling over the crust."},{"recipe_directions":"Stir pecans and cinnamon into the remaining crust mixture, mixing until incorporated. Sprinkle streusel topping evenly over the cranberry mixture."},{"recipe_directions":"Bake in the preheated oven until set, about 30 minutes. Remove from the oven and cool completely before cutting into bars, 30 minutes to 1 hour."},{"recipe_directions":"Feel free to substitute other berries, like blueberries, or fruit of your choice."},{"recipe_directions":"You can use frozen cranberries instead of fresh, and xanthan or guar gum instead of arrowroot powder, if preferred."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Orange Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"156\nCalories\n\n\n14g \nFat\n\n\n14g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699642290-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fDbNsgJA1c2BvLjA3FhpUJcVsbY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/6713935-e24bd997275743a29415c920102b4a59.jpg"
@@ -396,59 +725,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274172/keto-no-churn-strawberry-ice-cream/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Keto No-Churn Strawberry Ice Cream</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 10 mins\n\n\nServings:\n3 \n\n\nYield:\n3 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup heavy whipping cream\n\n\n⅓ cup chopped strawberries\n\n\n2 tablespoons low-calorie natural sweetener (such as Swerve®)\n\n\n1 tablespoon vodka (Optional)\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon xanthan gum\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup heavy whipping cream\n\n\n⅓ cup chopped strawberries\n\n\n2 tablespoons low-calorie natural sweetener (such as Swerve®)\n\n\n1 tablespoon vodka (Optional)\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon xanthan gum\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine heavy cream, strawberries, sweetener, vodka, vanilla extract, xanthan gum, and salt in a wide-mouth pint-size jar."},{"recipe_directions":"Using an immersion blender and an up and down motion, blend cream mixture for 60 to 75 seconds, or until thickened and soft peaks have formed."},{"recipe_directions":"Cover jar and freeze, stirring every 30 to 40 minutes, until ice cream reaches your ideal consistency, 3 to 4 hours."},{"recipe_directions":"You can pulse granular sweetener in a blender or food processor to achieve a powdered consistency."},{"recipe_directions":"If you prefer your ice cream a bit softer, remove from the freezer 15 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Strawberry Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"296\nCalories\n\n\n29g \nFat\n\n\n11g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699642297-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vi9oaYbC_p56TtsDRiPcFCvBj64=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/9809-rosettes-vat-beauty-4-4x3-dd043961d22f405196878f1066eaed05.jpg"
@@ -462,59 +787,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9809/rosettes-i/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Rosettes</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n30 \n\n\nYield:\n60 rosettes"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 cup sifted all-purpose flour\n\n\n1 cup milk\n\n\n1 teaspoon vanilla extract\n\n\n  vegetable oil for frying\n\n\n  confectioners' sugar for dusting"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2 large eggs\n\n\n1 tablespoon white sugar\n\n\n¼ teaspoon salt\n\n\n1 cup sifted all-purpose flour\n\n\n1 cup milk\n\n\n1 teaspoon vanilla extract\n\n\n  vegetable oil for frying\n\n\n  confectioners' sugar for dusting"}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These nostalgic rosette cookies taste just like home, according to many Allrecipes community members who make this sweet recipe every year."},{"recipe_directions":"A rosette cookie is a Scandinavian dessert that’s popular during the holiday season. The sweet, crispy fritter cookies, which are known for their intricate floral patterns, are made with a special tool called a rosette iron. They’re traditionally dusted with confectioners’ sugar before serving."},{"recipe_directions":"These are the ingredients you’ll need to make this rosette recipe:"},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you make homemade rosettes:"},{"recipe_directions":"Store your leftover rosettes in an airtight container at room temperature for up to three days."},{"recipe_directions":"Sure! Rosettes freeze well for up to three months. However, it’s best to dust the cookies with powdered sugar just after reheating and before serving."},{"recipe_directions":"“I made this exactly as the recipe shows while at my sisters in Minnesota and it turned out exactly like the way our grandmother made them all those years ago,” says jewels77b. “Wonderful!”"},{"recipe_directions":"“Just the right amount of sweetness,” according to FOUNDMYZEN. “Another suggestion if you like them a little crispier...chill the batter in the fridge for a couple hours. My next door neighbor has been making these every Christmas for 59 years and that was her advice to me!”"},{"recipe_directions":"“These are very easy and fairly fast to make,” raves Sugar High. “I suggest holding the powdered sugar until just before you serve them because it can make them kinda soggy in the end. Good taste, reminds me of funnel cakes!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Beat eggs, sugar, and salt together in a large bowl. Add flour, milk, and vanilla extract; beat until smooth."},{"recipe_directions":"Heat oil in a large, deep skillet to 375 degrees F (190 degrees C). Place a wire rack over paper towels."},{"recipe_directions":"Heat the rosette iron in hot oil for 2 minutes. Lift the iron and let excess oil drain. Dip the iron in batter to 1/4 inch from the top of the iron, then dip the iron immediately into hot oil."},{"recipe_directions":"Fry rosette in hot oil until golden, about 30 seconds."},{"recipe_directions":"Lift the iron out; tip upside down to drain. Use a fork to push rosette off the iron onto the prepared wire rack."},{"recipe_directions":"Reheat the iron in hot oil for 1 minute; cook remaining batter. Sprinkle rosettes with confectioners' sugar."},{"recipe_directions":"Enjoy!"},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Holidays and Events Recipes"},{"recipe_tags":"Christmas"},{"recipe_tags":"Desserts"},{"recipe_tags":"Christmas Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"561\nCalories\n\n\n59g \nFat\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699642303-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Aao1iYNJdyv_RvBn1xd5AKbjgCY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2556x0:2558x2):format(webp)/9403053-f78c4fb2ed7348488b0f370ae12a5378.jpg"
@@ -525,59 +846,55 @@
 Low-Carb Pecan Pie with Almond Flour Crust</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263953/low-carb-pecan-pie-with-almond-flour-crust/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Low-Carb Pecan Pie with Almond Flour Crust</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n9 -inch pie"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups blanched almond flour\n\n\n4 tablespoons melted butter"},{"recipe_ingredients":"1 cup granular sucralose sweetener (such as Splenda®)\n\n\n1 cup sugar-free maple-flavored syrup\n\n\n3  eggs\n\n\n2 tablespoons melted butter\n\n\n1 teaspoon vanilla\n\n\n1 ½ cups pecans"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups blanched almond flour\n\n\n4 tablespoons melted butter'}, {'recipe_ingredients': '1 cup granular sucralose sweetener (such as Splenda®)\n\n\n1 cup sugar-free maple-flavored syrup\n\n\n3  eggs\n\n\n2 tablespoons melted butter\n\n\n1 teaspoon vanilla\n\n\n1 ½ cups pecans'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix almond flour and 4 tablespoons melted butter together in a small bowl. Press into an ungreased 9-inch pie pan. Chill in the refrigerator while preparing the filling."},{"recipe_directions":"Combine sweetener, syrup, eggs, 2 tablespoons melted butter, and vanilla in a medium bowl. Stir in pecans. Pour mixture into pie crust."},{"recipe_directions":"Bake in the preheated oven until filling is set, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Pecan Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"384\nCalories\n\n\n37g \nFat\n\n\n9g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699642309-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RDNRKqNusaRb75_tFRmyDC-71UU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(967x0:969x2):format(webp)/5085565-92d21141e1454179a270778b60e3eba3.jpg"
@@ -590,59 +907,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/73386/key-lime-pie-low-carb-version/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Key Lime Pie - Low Carb Version</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup ground pecans\n\n\n3 tablespoons butter, melted\n\n\n2 (1 gram) packets Splenda® no calorie sweetener\n\n\n½ teaspoon coconut extract\n\n\n½ cup heavy cream\n\n\n2 (1 gram) packets Splenda® no calorie sweetener\n\n\n1 (.6 ounce) package sugar-free lime-flavor Jell-O®\n\n\n⅓ cup boiling water\n\n\n⅓ cup cold water\n\n\n2 (8 ounce) packages cream cheese, cut into pieces and softened\n\n\n½ teaspoon coconut extract\n\n\n2 tablespoons ground pecans"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup ground pecans\n\n\n3 tablespoons butter, melted\n\n\n2 (1 gram) packets Splenda® no calorie sweetener\n\n\n½ teaspoon coconut extract\n\n\n½ cup heavy cream\n\n\n2 (1 gram) packets Splenda® no calorie sweetener\n\n\n1 (.6 ounce) package sugar-free lime-flavor Jell-O®\n\n\n⅓ cup boiling water\n\n\n⅓ cup cold water\n\n\n2 (8 ounce) packages cream cheese, cut into pieces and softened\n\n\n½ teaspoon coconut extract\n\n\n2 tablespoons ground pecans'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium bowl, mix together 1 cup ground pecans, butter, 2 packets sweetener, and 1/2 teaspoon coconut extract. Press firmly into bottom and up sides of an 8 inch pie plate; refrigerate until firm."},{"recipe_directions":"In a small bowl, whip the heavy cream with 2 packets sweetener until soft peaks form. Set aside."},{"recipe_directions":"In a large bowl with high sides, mix the gelatin with boiling water until all the gelatin has dissolved. Then stir in the cold water. With an electric mixer, slowly beat in the cream cheese. After all cream cheese is added, stir in remaining 1/2 teaspoon coconut extract, and beat at high speed until smooth. Carefully fold in the whipped cream. Use a spatula to scrape mixture into the pie pan and spread around. Sprinkle remaining 2 tablespoons ground nuts on top. Refrigerate several hours or overnight to allow gelatin to set thoroughly."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"No-Bake Pie Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"415\nCalories\n\n\n41g \nFat\n\n\n5g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699642315-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GKX5wHDpwbcBlbNnC_M9XryJSbM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1492851-86ef54d88ad9454bbac70f0b34d60fd2.jpg"
@@ -655,59 +968,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272675/low-carb-almond-shortbread-cookies/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Low-Carb Almond Shortbread Cookies</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n20 \n\n\nYield:\n20 small cookies"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup almond flour\n\n\n3 tablespoons granular no-calorie sucralose sweetener (such as Splenda®)\n\n\n1 dash salt\n\n\n2 tablespoons butter, softened\n\n\n1  egg white\n\n\n¼ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup almond flour\n\n\n3 tablespoons granular no-calorie sucralose sweetener (such as Splenda®)\n\n\n1 dash salt\n\n\n2 tablespoons butter, softened\n\n\n1  egg white\n\n\n¼ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix almond flour, sweetener, and salt together in a small bowl with a fork. Add butter, egg white, and vanilla extract; continue mixing with a fork. Place in the freezer to help it harden for 15 minutes."},{"recipe_directions":"Meanwhile, preheat the oven to 325 degrees F (165 degrees C). Line a baking sheet with parchment paper or use a silicone baking mat."},{"recipe_directions":"Remove batter from freezer. Measure out 1 teaspoon at a time; roll into balls and place on the prepared baking sheet. Place plastic wrap on the bottom of a glass and roll dough balls flat."},{"recipe_directions":"Bake in the preheated oven until light, golden brown, 15 to 20 minutes."},{"recipe_directions":"You can substitute almond extract for the vanilla extract, if desired."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Nut Dessert Recipes"},{"recipe_tags":"Almond Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"39\nCalories\n\n\n4g \nFat\n\n\n1g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699642319-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uNZs41M1HfbRfWGr4Mm-OnyFFbw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2143x0:2145x2):format(webp)/5763513-b248330290df473cbd4ea5b2194ebf49.jpg"
@@ -720,59 +1029,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264640/low-carb-sugar-free-instant-pot-cheesecake/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Low-Carb, Sugar-Free Instant Pot Cheesecake</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 2 hrs 55 mins\n\n\nTotal Time:\n 3 hrs 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 (8 ounce) packages cream cheese, at room temperature\n\n\n⅔ cup sucralose sugar substitute (such as Splenda® Granulated)\n\n\n1 teaspoon vanilla extract\n\n\n2 large eggs, room temperature\n\n\n1 cup sliced fresh strawberries"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 (8 ounce) packages cream cheese, at room temperature\n\n\n⅔ cup sucralose sugar substitute (such as Splenda® Granulated)\n\n\n1 teaspoon vanilla extract\n\n\n2 large eggs, room temperature\n\n\n1 cup sliced fresh strawberries'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Grease the inside of a springform pan with cooking spray. Place a rack in the bottom of a multi-functional pressure cooker (such as Instant Pot) and add 1 inch water."},{"recipe_directions":"Beat cream cheese in a large bowl with an electric mixer until completely smooth. Add sugar substitute and vanilla; blend until just incorporated. Add eggs one at a time, mixing after each addition; do not overbeat."},{"recipe_directions":"Pour batter into the prepared springform pan. Cover the bottom and sides of the pan tightly with a single piece of aluminum foil to prevent water from leaking into the pan."},{"recipe_directions":"Lower the filled springform pan onto the rack in the pressure cooker pot. Close and lock the lid. Select high pressure according to manufacturer's instructions; set the timer for 20 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to manufacturer's instructions, 10 to 40 minutes. Remove the lid and allow cheesecake to cool slightly inside the pressure cooker, 15 to 20 minutes. Remove cheesecake carefully from the pressure cooker and allow to cool completely, about 30 minutes more."},{"recipe_directions":"Remove aluminum foil; cover cheesecake with plastic wrap and refrigerate until chilled, 2 hours to overnight."},{"recipe_directions":"Sprinkle sliced strawberries over cheesecake just before serving."},{"recipe_directions":"You can use any cup-for-cup sugar substitute in this recipe."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Cheesecake Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"301\nCalories\n\n\n21g \nFat\n\n\n19g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699642324-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NS5dsirNCQzvoilGuFCaMrUIaR0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4561822-280520bd421e4831967e460864e9ffc7.jpg"
@@ -785,59 +1090,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260369/5-ingredient-peanut-butter-chocolate-cookies/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5-Ingredient Peanut Butter Chocolate Cookies</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n55 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n16 \n\n\nYield:\n16 cookies"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup creamy peanut butter\n\n\n¼ cup stevia sweetener (such as Truvia®)\n\n\n1 large egg\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup creamy peanut butter\n\n\n¼ cup stevia sweetener (such as Truvia®)\n\n\n1 large egg\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n1 tablespoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix peanut butter, stevia, egg, cocoa powder, and vanilla with an electric mixer or in a food processor until well combined. Roll dough into sixteen 1-inch balls. Place 1 to 2 inches apart onto an ungreased baking sheet. Flatten balls with a fork."},{"recipe_directions":"Bake in the preheated oven until edges are set, about 10 minutes. Remove from the oven and let cool on the baking sheet for 10 minutes."},{"recipe_directions":"Line a tray with waxed paper. Carefully transfer cookies to the tray and let cool to room temperature, about 15 minutes. Refrigerate until fully set, about 30 minutes."},{"recipe_directions":"Cookies will be very crumbly until fully set."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Peanut Butter Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"105\nCalories\n\n\n9g \nFat\n\n\n6g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699642329-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pr8cUMC8waXqM0FyQquBNFzA-Qs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2381x0:2383x2):format(webp)/9323087-98e91318d1984531ba3c4bd8674634aa.jpg"
@@ -850,59 +1151,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223398/easy-faux-chocolate-mousse/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Easy Faux Chocolate Mousse</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) container mascarpone cheese\n\n\n2 tablespoons heavy whipping cream\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) container mascarpone cheese\n\n\n2 tablespoons heavy whipping cream\n\n\n1 teaspoon vanilla extract\n\n\n¼ cup chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix mascarpone cheese, whipping cream, and vanilla together in a bowl."},{"recipe_directions":"Melt chocolate chips in the top of a double boiler over simmering water, stirring frequently and scraping down the sides with a rubber spatula to avoid scorching."},{"recipe_directions":"Fold melted chocolate into mascarpone cheese mixture. Refrigerate until set, 1 to 2 hours."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Mousse Recipes"},{"recipe_tags":"Chocolate Mousse Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"319\nCalories\n\n\n32g \nFat\n\n\n7g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699642337-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sriqUlNMp65CQI0-dTm_2YCu33M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1036682-d776599ed42a484b88430e2a23025ed2.jpg"
@@ -915,59 +1212,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272159/keto-berry-pecan-cheesecake-bars/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Keto Berry Pecan Cheesecake Bars</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n18"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup pecans\n\n\n1 teaspoon stevia-erythritol sweetener\n\n\n1 teaspoon cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n2 tablespoons melted butter"},{"recipe_ingredients":"1  egg\n\n\n12 ounces cream cheese\n\n\n½ cup stevia-erythritol sweetener\n\n\n¼ cup sour cream\n\n\n½ teaspoon vanilla extract\n\n\n¼ cup unsweetened almond milk\n\n\n1 tablespoon melted butter"},{"recipe_ingredients":"1 cup frozen mixed berries\n\n\n1 tablespoon stevia-erythritol sweetener"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup pecans\n\n\n1 teaspoon stevia-erythritol sweetener\n\n\n1 teaspoon cinnamon\n\n\n¼ teaspoon ground nutmeg\n\n\n2 tablespoons melted butter'}, {'recipe_ingredients': '1  egg\n\n\n12 ounces cream cheese\n\n\n½ cup stevia-erythritol sweetener\n\n\n¼ cup sour cream\n\n\n½ teaspoon vanilla extract\n\n\n¼ cup unsweetened almond milk\n\n\n1 tablespoon melted butter'}, {'recipe_ingredients': '1 cup frozen mixed berries\n\n\n1 tablespoon stevia-erythritol sweetener'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Add pecans to a food processor and chop very finely. Add sweetener, cinnamon, and nutmeg. Process for a few more seconds. Pour mixture into a bowl and add melted butter. Stir together and press crust mixture into the bottom of a divided brownie pan with the divider removed."},{"recipe_directions":"Beat egg until fluffy in a large bowl with an electric mixer. Mix in cream cheese 1 ounce at a time. Beat mixture until cream cheese is smooth. Add sweetener, sour cream, vanilla extract, and almond milk. Beat together until filling is smooth. Stir in melted butter. Pour filling over crust in the brownie pan. Insert divider into the pan."},{"recipe_directions":"Bake in the preheated oven for about 35 minutes."},{"recipe_directions":"Meanwhile, heat a small pot over medium heat. Add mixed berries and sweetener and bring to a simmer, about 5 minutes. Stir berries and crush some with a spoon so that a liquid starts to form. Cook for about 10 minutes more."},{"recipe_directions":"Allow cheesecake bars to cool in the brownie pan, about 1 hour. Pour berry sauce on top of bars."},{"recipe_directions":"I used that square brownie pan where the divider lifts out in the middle, but you can use a regular springform pan."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Nut Dessert Recipes"},{"recipe_tags":"Pecan Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"155\nCalories\n\n\n14g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699642343-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QCPZO4oQU2mh55WAHEXYOx2rr4w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/4576965-b3ff9b43cf5c46b2844672659e3617ff.jpg"
@@ -980,59 +1273,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261183/chewy-keto-chocolate-cookies/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Chewy Keto Chocolate Cookies</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n15 \n\n\nYield:\n15 cookies"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups almond butter\n\n\n½ cup low-calorie natural sweetener (such as Swerve®)\n\n\n⅓ cup unsweetened cocoa powder, sifted\n\n\n2 large eggs\n\n\n1 teaspoon sugar-free vanilla extract\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups almond butter\n\n\n½ cup low-calorie natural sweetener (such as Swerve®)\n\n\n⅓ cup unsweetened cocoa powder, sifted\n\n\n2 large eggs\n\n\n1 teaspoon sugar-free vanilla extract\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine almond butter, sweetener, cocoa powder, eggs, vanilla, and salt in the bowl of a food processor; pulse until a dough forms."},{"recipe_directions":"Roll dough into fifteen 1-inch balls. Place balls onto the prepared baking sheet. Press down twice on each ball with a fork to make a crisscross pattern."},{"recipe_directions":"Bake in the preheated oven until edges are firm, about 12 minutes."},{"recipe_directions":"Remove from the oven and cool briefly on the baking sheet before removing to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Chocolate Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"173\nCalories\n\n\n16g \nFat\n\n\n13g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699642347-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ODItmpMAY4gOuKpU2DPfjqNEVpM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/516196-7b11ee714abd4803a162c1ee4caa9ca6.jpg"
@@ -1045,59 +1334,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/12527/cream-cheese-tart-shells/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Cream Cheese Tart Shells</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n40 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n24 \n\n\nYield:\n24 tart shells"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter, softened\n\n\n3 ounces cream cheese, softened\n\n\n1 cup all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter, softened\n\n\n3 ounces cream cheese, softened\n\n\n1 cup all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend butter and cream cheese. Stir in flour just until blended. Chill about 1 hour."},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Shape dough into 24 1-inch balls and press into ungreased 1 1/2-inch muffin cups (mini-muffin size) to make a shallow shell."},{"recipe_directions":"Fill with your favorite filling and bake until shells are light brown, about 20 minutes."},{"recipe_directions":"This dough can be made ahead and chilled for up to 24 hours."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Tarts"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"65\nCalories\n\n\n5g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699642351-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/47AypU2Stx_1b-2IQEj358KyyOg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1691x0:1693x2):format(webp)/7288197-273b4e532fda4474a4f52eb2d753b3b9.jpg"
@@ -1110,59 +1395,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/272693/keto-pumpkin-cheesecake-with-almond-pecan-crust/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Keto Pumpkin Cheesecake with Almond Pecan Crust</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 4 hrs 40 mins\n\n\nTotal Time:\n 5 hrs 45 mins\n\n\nServings:\n16 \n\n\nYield:\n1 9-inch cheesecake"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almonds\n\n\n1 cup pecans\n\n\n2 (1 gram) packets granular sucralose sweetener (such as Splenda®)\n\n\n3 tablespoons butter, melted"},{"recipe_ingredients":"3 (8 ounce) packages low-fat cream cheese, at room temperature\n\n\n⅔ cup granular sucralose sweetener (such as Splenda®)\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground ginger\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon salt\n\n\n3  eggs"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almonds\n\n\n1 cup pecans\n\n\n2 (1 gram) packets granular sucralose sweetener (such as Splenda®)\n\n\n3 tablespoons butter, melted'}, {'recipe_ingredients': '3 (8 ounce) packages low-fat cream cheese, at room temperature\n\n\n⅔ cup granular sucralose sweetener (such as Splenda®)\n\n\n1 (15 ounce) can pumpkin puree\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon ground ginger\n\n\n¼ teaspoon ground cloves\n\n\n¼ teaspoon salt\n\n\n3  eggs'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Pulse almonds and pecans together in a food processor until ground, but not paste-like. Add sweetener and butter; pulse to combine. Press mixture into the bottom of a 9-inch springform pan."},{"recipe_directions":"Bake in the preheated oven until crust is golden brown, about 10 minutes. Let cool 10 minutes."},{"recipe_directions":"Blend cream cheese and 2/3 cup sweetener in a food processor or with an electric mixer until smooth, 2 to 3 minutes. Mix in pumpkin, vanilla extract, cinnamon, ginger, cloves, and salt until smooth, about 2 minutes more. Add eggs one at a time, mixing thoroughly after each addition. Pour filling into prepared crust."},{"recipe_directions":"Bake in the preheated oven until just set in the center, or when the filling jiggles but does not run, 45 to 50 minutes. Let cool completely, about 30 minutes. Run a knife around the edge of the cheesecake; cover, and refrigerate for at least 4 hours."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Cheesecake Recipes"},{"recipe_tags":"Pumpkin Cheesecake Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"245\nCalories\n\n\n21g \nFat\n\n\n9g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699642357-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gAgixU9pgadnsXMYzf9OeZUhicI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(799x0:801x2):format(webp)/5895201-keto-coconut-cookies-fabeveryday-4x3-1-e275a11343e6493c90ba51b8a485f548.jpg"
@@ -1176,59 +1457,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268690/keto-coconut-cookies/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Keto Coconut Cookies</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n17 mins\n\n\nAdditional Time:\n3 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n18 \n\n\nYield:\n18 cookies"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup granular sucralose sweetener (such as Splenda®)\n\n\n½ cup butter\n\n\n3  eggs\n\n\n½ tablespoon heavy cream\n\n\n1 teaspoon almond milk\n\n\n½ cup unsweetened coconut flakes\n\n\n6 tablespoons coconut flour\n\n\n¼ cup almond flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup granular sucralose sweetener (such as Splenda®)\n\n\n½ cup butter\n\n\n3  eggs\n\n\n½ tablespoon heavy cream\n\n\n1 teaspoon almond milk\n\n\n½ cup unsweetened coconut flakes\n\n\n6 tablespoons coconut flour\n\n\n¼ cup almond flour\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Beat sweetener and butter together in a bowl until creamy. Add eggs, heavy cream, and almond milk; beat until smooth. Scrape down sides with a spatula."},{"recipe_directions":"Mix coconut flakes, coconut flour, almond flour, baking powder, baking soda, and salt together in a separate bowl. Beat into the butter mixture until dough comes together."},{"recipe_directions":"Drop teaspoonfuls of cookie dough onto the baking sheets."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 17 minutes. Cool on the baking sheet for 3 minutes before transferring to a wire rack."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Fruit Cookie Recipes"},{"recipe_tags":"Coconut"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"98\nCalories\n\n\n9g \nFat\n\n\n3g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699642363-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hNGrq4rVNavIXbPVAl0QdyHzbTA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6703295-no-churn-keto-ice-cream-France-C-4x3-1-c8bbe7b6afe3440298133c7fe8c558c2.jpg"
@@ -1242,59 +1519,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274042/no-churn-keto-ice-cream/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Keto Ice Cream</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 10 mins\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup heavy whipping cream\n\n\n2 tablespoons powdered zero-calorie sweetener (such as Swerve)\n\n\n1 tablespoon vodka\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon xanthan gum\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup heavy whipping cream\n\n\n2 tablespoons powdered zero-calorie sweetener (such as Swerve)\n\n\n1 tablespoon vodka\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon xanthan gum\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cream, sweetener, vodka, vanilla extract, xanthan gum, and salt in a wide-mouth pint-sized jar. Blend cream mixture with an immersion blender in an up-and-down motion until cream has thickened and soft peaks have formed, 60 to 75 seconds."},{"recipe_directions":"Blend cream mixture with an immersion blender in an up-and-down motion until cream has thickened and soft peaks have formed, 60 to 75 seconds."},{"recipe_directions":"Cover jar and place in the freezer for 3 to 4 hours, stirring every 30 to 40 minutes."},{"recipe_directions":"The vodka is optional, however it really helps keep the ice cream scoopable and you don't taste it!"},{"recipe_directions":"Freezing for 3 to 4 hours produces the best consistency, however if you'd like to soften it a bit, 10 seconds in the microwave does the trick, or remove from the freezer 15 minutes ahead of time."},{"recipe_directions":"You can pulse granular sweetener in a blender or food processor to achieve a powdered consistency."},{"recipe_directions":"Use different flavored extracts for variety."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Frozen Dessert Recipes"},{"recipe_tags":"Ice Cream"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"291\nCalories\n\n\n29g \nFat\n\n\n3g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699642369-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/himhCvDcUStVUm8My9Uy2pVQwec=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3072281-ac9886eb7acc4d309c87fe57dfdc9ffc.jpg"
@@ -1307,59 +1580,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19032/cream-puff-shells/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Cream Puff Shells</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n12 large puffs"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup shortening\n\n\n⅛ teaspoon salt\n\n\n1 cup boiling water\n\n\n1 cup sifted all-purpose flour\n\n\n4  eggs"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup shortening\n\n\n⅛ teaspoon salt\n\n\n1 cup boiling water\n\n\n1 cup sifted all-purpose flour\n\n\n4  eggs'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C). In medium saucepan, combine shortening, salt and boiling water and heat until entire mixture boils. Reduce heat, add flour all at once and stir vigorously until mixture forms a ball. Remove from heat and add eggs, one at a time, beating thoroughly after each addition. Continue beating until mixture is thick and shiny and breaks from spoon."},{"recipe_directions":"Pipe or spoon onto ungreased cookie sheet and bake 20 minutes, reduce heat to 350 degrees F (175 degrees C) and bake 20 minutes more, or until golden and sound hollow when tapped. Cool and fill."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"French"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"137\nCalories\n\n\n10g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699642376-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/wJzgsDCnhv1oNLGLUsOqhzILgUw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1999705-sugar-free-brownies-Sharon-M-4x3-1-477ada4da83b43468d0dbea65033706f.jpg"
@@ -1373,59 +1642,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25113/sugar-free-brownies/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sugar Free Brownies</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n25 \n\n\nYield:\n25 squares"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup margarine\n\n\n¼ cup unsweetened cocoa powder\n\n\n2  eggs\n\n\n1 cup granular sucrolose sweetener (such as Splenda®)\n\n\n¾ cup all-purpose flour\n\n\n⅛ teaspoon salt\n\n\n¼ cup skim milk\n\n\n½ cup chopped walnuts (Optional)\n\n\n1 (1.4 ounce) package sugar free, chocolate fudge flavored instant pudding \n\n\n1 cup skim milk"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup margarine\n\n\n¼ cup unsweetened cocoa powder\n\n\n2  eggs\n\n\n1 cup granular sucrolose sweetener (such as Splenda®)\n\n\n¾ cup all-purpose flour\n\n\n⅛ teaspoon salt\n\n\n¼ cup skim milk\n\n\n½ cup chopped walnuts (Optional)\n\n\n1 (1.4 ounce) package sugar free, chocolate fudge flavored instant pudding \n\n\n1 cup skim milk'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease and flour an 8x8 inch pan."},{"recipe_directions":"In a small saucepan over medium heat, melt margarine and cocoa together, stirring occasionally until smooth. Remove from heat and set aside to cool. In a large bowl, beat eggs until frothy. Stir in the sucrolose sweetener. Combine the flour and salt; stir into the egg mixture then mix in the cocoa and margarine. Finally stir in the 1/4 cup of milk and if desired, the walnuts. Pour into the prepared pan."},{"recipe_directions":"Bake for 25 to 30 minutes in the preheated oven, until a toothpick inserted into the center, comes out clean. To make frosting, Mix together the sugar free chocolate pudding mix and 1 cup skim milk using an electric mixer. Mix for about two minutes or until thick. Spread over cooled brownies before cutting into squares."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Brownie Recipes"},{"recipe_tags":"Chocolate Brownie Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"74\nCalories\n\n\n6g \nFat\n\n\n5g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699642383-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fUKriaeA5AOKtNs1rN9TUeeRkOo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(499x0:501x2):format(webp)/6771319-7049b3036138463e984233767de6715e.jpg"
@@ -1438,59 +1703,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277441/low-carb-cheesecake/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Low-Carb Cheesecake</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 4 hrs 10 mins\n\n\nTotal Time:\n 5 hrs 10 mins\n\n\nServings:\n16 \n\n\nYield:\n1 9-inch cheesecake"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups blanched almond flour\n\n\n⅓ cup butter, melted\n\n\n3 tablespoons powdered erythritol sweetener\n\n\n1 teaspoon vanilla extract"},{"recipe_ingredients":"4 (8 ounce) packages cream cheese, softened\n\n\n1 ¼ cups powdered erythritol sweetener\n\n\n3 large eggs\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon lemon zest"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups blanched almond flour\n\n\n⅓ cup butter, melted\n\n\n3 tablespoons powdered erythritol sweetener\n\n\n1 teaspoon vanilla extract'}, {'recipe_ingredients': '4 (8 ounce) packages cream cheese, softened\n\n\n1 ¼ cups powdered erythritol sweetener\n\n\n3 large eggs\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon vanilla extract\n\n\n¼ teaspoon lemon zest'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 9-inch springform pan and line the bottom with parchment paper. Wrap the bottom and sides of the pan with aluminum foil if worried about leakage."},{"recipe_directions":"Stir almond flour, butter, erythritol, and vanilla extract together in a small bowl until well combined; the mixture will be crumbly. Press into the prepared pan bottom."},{"recipe_directions":"Bake on the center rack in the preheated oven until just golden, 10 to 12 minutes. Allow to cool for 10 minutes."},{"recipe_directions":"Meanwhile, beat cream cheese and powdered sweetener together using an electric stand or hand mixer at low speed until fluffy. Beat in eggs, one at a time. Add lemon juice, vanilla extract, and lemon zest; beat until well combined."},{"recipe_directions":"Bake on the center rack in the preheated oven until almost set and slightly jiggly in the center, 45 to 55 minutes."},{"recipe_directions":"Remove from the oven and let cool in the pan. Keep in the pan, cover, and refrigerate to fully set, at least 4 hours to overnight. Run a knife gently around the sides, unclamp, and carefully remove the pan; it should come right off."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Cheesecake Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"335\nCalories\n\n\n32g \nFat\n\n\n22g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699642388-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CjgtzAVsAGZc3bzpU1af-7U25V0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1451574-1517b9366e1d44acb758a3a3487f833a.jpg"
@@ -1503,59 +1764,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266182/low-carb-pumpkin-cheesecake-bars/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Low-Carb Pumpkin Cheesecake Bars</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n16 \n\n\nYield:\n16 bars"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 (15 ounce) can pumpkin puree\n\n\n5  eggs\n\n\n1 cup granular sucralose sweetener (such as Splenda®)\n\n\n1 teaspoon pumpkin pie spice\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 (15 ounce) can pumpkin puree\n\n\n5  eggs\n\n\n1 cup granular sucralose sweetener (such as Splenda®)\n\n\n1 teaspoon pumpkin pie spice\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Spray an 8-inch glass baking dish with cooking spray."},{"recipe_directions":"Place cream cheese in the bowl of a stand mixer fitted with the paddle attachment; beat on high speed until smooth. Add pumpkin puree, eggs, sweetener, pumpkin pie spice, cinnamon, and vanilla extract. Beat well. Pour batter into the prepared dish."},{"recipe_directions":"Bake in the preheated oven until center is set, about 40 minutes. Cool to room temperature before serving, or serve cold."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cakes"},{"recipe_tags":"Cheesecake Recipes"},{"recipe_tags":"Pumpkin Cheesecake Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"83\nCalories\n\n\n7g \nFat\n\n\n3g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699642396-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QVFlCDLLQV47PjkjIxqMFT4SvHo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(839x1479:841x1481):format(webp)/5703550-low-carb-almond-cinnamon-butter-cookies-AngieWard76-1x1-1-aa43a153ef334d67b9f3863e348a50c3.jpg"
@@ -1569,59 +1826,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261182/low-carb-almond-cinnamon-butter-cookies/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Low-Carb Almond Cinnamon Butter Cookies</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n12 \n\n\nYield:\n12 cookies"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups blanched almond flour\n\n\n½ cup unsalted butter, softened\n\n\n½ cup low-calorie natural sweetener (such as Swerve®)\n\n\n1 large egg\n\n\n1 teaspoon sugar-free vanilla extract\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups blanched almond flour\n\n\n½ cup unsalted butter, softened\n\n\n½ cup low-calorie natural sweetener (such as Swerve®)\n\n\n1 large egg\n\n\n1 teaspoon sugar-free vanilla extract\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Mix almond flour, butter, sweetener, egg, vanilla, and cinnamon together in a bowl until well combined. Roll dough into twelve 1-inch balls. Place balls onto the prepared baking sheet. Press down twice with a fork onto each ball to make a crisscross."},{"recipe_directions":"Bake in the preheated oven until the edges are golden, 12 to 15 minutes. Cool on the baking sheet briefly before transferring to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Nut Dessert Recipes"},{"recipe_tags":"Almond Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"196\nCalories\n\n\n18g \nFat\n\n\n13g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699642402-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1596/healthy-recipes/low-carb/desserts/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1ul_7RnQ6FXqDM0AFOG_tyOqSTY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/638521-24ed83931f164676accf1e3f79b09df8.jpg"
@@ -1634,42 +1887,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19890/mini-meringues/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Mini Meringues</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n12 \n\n\nYield:\n12 meringues"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large egg whites\n\n\n½ cup superfine sugar\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large egg whites\n\n\n½ cup superfine sugar\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Beat egg whites in a large bowl with an electric mixer until stiff, but not dry. Gradually beat in sugar until a little of the mixture between your thumb and forefinger feels smooth, not gritty. Stir in vanilla."},{"recipe_directions":"Pipe or spoon small portions onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until dry but not brown, about 35 minutes. Turn the oven off and leave meringues inside to cool for at least 25 minutes."},{"recipe_directions":"Coffee Mini Meringues: Substitute 2 teaspoons instant coffee granules for the vanilla."},{"recipe_directions":"Chocolate Mini Meringues: Substitute 1 1/2 tablespoons cocoa for the vanilla."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Meringue Cookies"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"36\nCalories\n\n\n8g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>